--- a/tabellen/concept/5.1/objectentabellen-verkort/objecten-concept-5.1-WH-waterhuishouding.xlsx
+++ b/tabellen/concept/5.1/objectentabellen-verkort/objecten-concept-5.1-WH-waterhuishouding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen-verkort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC53177A-182F-4F3B-A443-4C411D183B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:b_{C04A960F-8D51-4F62-AC76-B2EFB80DBC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{77B20A86-6267-4533-B180-291DC2A6D9AB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D0BCD04D-4370-4FD2-AF79-9B79D60D27C5}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-WH-waterhu" sheetId="1" r:id="rId1"/>
@@ -1230,15 +1230,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{103A6912-35E9-4F96-9146-330F26EEE191}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1F5676-A79E-4627-94FA-57D400EFBD04}">
   <dimension ref="A1:AJ48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView tabSelected="1" topLeftCell="N4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
     <col min="3" max="3" width="23.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6151,7 +6152,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ48" xr:uid="{103A6912-35E9-4F96-9146-330F26EEE191}">
+  <autoFilter ref="A1:AJ48" xr:uid="{FC1F5676-A79E-4627-94FA-57D400EFBD04}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AJ48">
       <sortCondition ref="C1:C48"/>
     </sortState>
